--- a/Översikt TJÖRN.xlsx
+++ b/Översikt TJÖRN.xlsx
@@ -575,7 +575,7 @@
         <v>45789.38215277778</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45974.59738425926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>46029</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,14 +845,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 34939-2025</t>
+          <t>A 42462-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45849.58229166667</v>
+        <v>45905.45730324074</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>7.8</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -902,14 +902,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 34963-2025</t>
+          <t>A 1103-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45849.63219907408</v>
+        <v>45666</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -959,14 +959,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 57655-2025</t>
+          <t>A 21141-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45981.40369212963</v>
+        <v>45062</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1016,14 +1016,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 42462-2025</t>
+          <t>A 45167-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45905.45730324074</v>
+        <v>45919.49364583333</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1073,14 +1073,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 1486-2023</t>
+          <t>A 45088-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44937</v>
+        <v>45919.37598379629</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1130,14 +1130,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 59011-2025</t>
+          <t>A 45158-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45987</v>
+        <v>45919.48245370371</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1187,14 +1187,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 7791-2023</t>
+          <t>A 1379-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44973</v>
+        <v>45303.55193287037</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1206,8 +1206,13 @@
           <t>TJÖRN</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G11" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1244,14 +1249,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 45167-2025</t>
+          <t>A 61627-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45919.49364583333</v>
+        <v>45646.66263888889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1263,8 +1268,13 @@
           <t>TJÖRN</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G12" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1301,14 +1311,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 2434-2026</t>
+          <t>A 34591-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>46036.86722222222</v>
+        <v>44795.3778587963</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1321,7 +1331,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1358,14 +1368,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 45158-2025</t>
+          <t>A 34508-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45919.48245370371</v>
+        <v>45847.44315972222</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1378,7 +1388,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1415,14 +1425,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 45088-2025</t>
+          <t>A 34394-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45919.37598379629</v>
+        <v>45846.58854166666</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1435,7 +1445,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.9</v>
+        <v>3.9</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1472,14 +1482,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 2433-2026</t>
+          <t>A 32577-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>46036.86631944445</v>
+        <v>45838</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1492,7 +1502,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.6</v>
+        <v>5.3</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1536,7 +1546,7 @@
         <v>44912.89109953704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1586,14 +1596,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 31486-2021</t>
+          <t>A 34939-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44369.43783564815</v>
+        <v>45849.58229166667</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1606,7 +1616,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.8</v>
+        <v>7.8</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1643,14 +1653,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 1379-2024</t>
+          <t>A 34963-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45303.55193287037</v>
+        <v>45849.63219907408</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1662,13 +1672,8 @@
           <t>TJÖRN</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G19" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1705,14 +1710,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 57410-2022</t>
+          <t>A 21379-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44896</v>
+        <v>45063.34819444444</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1725,7 +1730,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>7.5</v>
+        <v>5.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1762,14 +1767,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 61627-2024</t>
+          <t>A 57000-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45646.66263888889</v>
+        <v>45977</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1781,13 +1786,8 @@
           <t>TJÖRN</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1824,14 +1824,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 43229-2024</t>
+          <t>A 57655-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45567.88697916667</v>
+        <v>45981.40369212963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>9.699999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1881,14 +1881,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 769-2023</t>
+          <t>A 60392-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44931</v>
+        <v>44910</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.7</v>
+        <v>4.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1938,14 +1938,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 21379-2023</t>
+          <t>A 59011-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45063.34819444444</v>
+        <v>45987</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5.8</v>
+        <v>2.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>44973</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2052,14 +2052,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 57000-2025</t>
+          <t>A 2434-2026</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45977</v>
+        <v>46036.86722222222</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2109,14 +2109,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 34591-2022</t>
+          <t>A 2433-2026</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44795.3778587963</v>
+        <v>46036.86631944445</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2166,14 +2166,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 63664-2023</t>
+          <t>A 60717-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45275.62074074074</v>
+        <v>44912.89078703704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2223,14 +2223,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 60793-2023</t>
+          <t>A 43229-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45260.6534375</v>
+        <v>45567.88697916667</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2280,14 +2280,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 57955-2024</t>
+          <t>A 59192-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45631.56939814815</v>
+        <v>44896</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2337,14 +2337,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 21141-2023</t>
+          <t>A 7791-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45062</v>
+        <v>44973</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2394,14 +2394,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 60392-2022</t>
+          <t>A 769-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44910</v>
+        <v>44931</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4.1</v>
+        <v>1.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2451,14 +2451,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 59192-2022</t>
+          <t>A 1486-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44896</v>
+        <v>44937</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2508,14 +2508,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 60717-2022</t>
+          <t>A 60793-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44912.89078703704</v>
+        <v>45260.6534375</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2565,14 +2565,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 23301-2025</t>
+          <t>A 57410-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45791.59498842592</v>
+        <v>44896</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2622,14 +2622,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 23294-2025</t>
+          <t>A 31486-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45791.58967592593</v>
+        <v>44369.43783564815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2679,14 +2679,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 23295-2025</t>
+          <t>A 63664-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45791.59071759259</v>
+        <v>45275.62074074074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2736,14 +2736,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 1103-2025</t>
+          <t>A 57955-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45666</v>
+        <v>45631.56939814815</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2793,14 +2793,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 34394-2025</t>
+          <t>A 23295-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45846.58854166666</v>
+        <v>45791.59071759259</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.9</v>
+        <v>2.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2850,14 +2850,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 32577-2025</t>
+          <t>A 23294-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45838</v>
+        <v>45791.58967592593</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2907,14 +2907,14 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 34508-2025</t>
+          <t>A 23301-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45847.44315972222</v>
+        <v>45791.59498842592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>

--- a/Översikt TJÖRN.xlsx
+++ b/Översikt TJÖRN.xlsx
@@ -575,7 +575,7 @@
         <v>45789.38215277778</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45974.59738425926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>46029</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>45905.45730324074</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>45666</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>45062</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>45919.49364583333</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1080,7 +1080,7 @@
         <v>45919.37598379629</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>45919.48245370371</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>45303.55193287037</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45646.66263888889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>44795.3778587963</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>45847.44315972222</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>45846.58854166666</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>45838</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>44912.89109953704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>45849.58229166667</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>45849.63219907408</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45063.34819444444</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45977</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>45981.40369212963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>44910</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>45987</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>44973</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>46036.86722222222</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>46036.86631944445</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44912.89078703704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>45567.88697916667</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>44896</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>44973</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>44931</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44937</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>45260.6534375</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>44896</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>44369.43783564815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>45275.62074074074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>45631.56939814815</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>45791.59071759259</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>45791.58967592593</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>45791.59498842592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>

--- a/Översikt TJÖRN.xlsx
+++ b/Översikt TJÖRN.xlsx
@@ -575,7 +575,7 @@
         <v>45789.38215277778</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45974.59738425926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>46029</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>45905.45730324074</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>45666</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>45062</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>45919.49364583333</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1080,7 +1080,7 @@
         <v>45919.37598379629</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>45919.48245370371</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>45303.55193287037</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45646.66263888889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>44795.3778587963</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>45847.44315972222</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>45846.58854166666</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>45838</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>44912.89109953704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>45849.58229166667</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>45849.63219907408</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45063.34819444444</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45977</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>45981.40369212963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>44910</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>45987</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>44973</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>46036.86722222222</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>46036.86631944445</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44912.89078703704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>45567.88697916667</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>44896</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>44973</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>44931</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44937</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>45260.6534375</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>44896</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>44369.43783564815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>45275.62074074074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>45631.56939814815</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>45791.59071759259</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>45791.58967592593</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>45791.59498842592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>

--- a/Översikt TJÖRN.xlsx
+++ b/Översikt TJÖRN.xlsx
@@ -575,7 +575,7 @@
         <v>45789.38215277778</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45974.59738425926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>46029</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,14 +845,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 42462-2025</t>
+          <t>A 1486-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45905.45730324074</v>
+        <v>44937</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>0.2</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -902,14 +902,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 1103-2025</t>
+          <t>A 60718-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45666</v>
+        <v>44912.89109953704</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -959,14 +959,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 21141-2023</t>
+          <t>A 31486-2021</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45062</v>
+        <v>44369.43783564815</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1016,14 +1016,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 45167-2025</t>
+          <t>A 57410-2022</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45919.49364583333</v>
+        <v>44896</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.6</v>
+        <v>7.5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1073,14 +1073,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 45088-2025</t>
+          <t>A 43229-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45919.37598379629</v>
+        <v>45567.88697916667</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1130,14 +1130,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 45158-2025</t>
+          <t>A 1103-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45919.48245370371</v>
+        <v>45666</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1187,14 +1187,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 1379-2024</t>
+          <t>A 769-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45303.55193287037</v>
+        <v>44931</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1206,13 +1206,8 @@
           <t>TJÖRN</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G11" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1249,14 +1244,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 61627-2024</t>
+          <t>A 21379-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45646.66263888889</v>
+        <v>45063.34819444444</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1268,13 +1263,8 @@
           <t>TJÖRN</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G12" t="n">
-        <v>2.1</v>
+        <v>5.8</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1311,14 +1301,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 34591-2022</t>
+          <t>A 34394-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44795.3778587963</v>
+        <v>45846.58854166666</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1331,7 +1321,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1368,14 +1358,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 34508-2025</t>
+          <t>A 32577-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45847.44315972222</v>
+        <v>45838</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1388,7 +1378,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>5.3</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1425,14 +1415,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 34394-2025</t>
+          <t>A 34508-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45846.58854166666</v>
+        <v>45847.44315972222</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1445,7 +1435,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1482,14 +1472,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 32577-2025</t>
+          <t>A 7787-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45838</v>
+        <v>44973</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1502,7 +1492,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1539,14 +1529,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 60718-2022</t>
+          <t>A 42462-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44912.89109953704</v>
+        <v>45905.45730324074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1559,7 +1549,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1603,7 +1593,7 @@
         <v>45849.58229166667</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1660,7 +1650,7 @@
         <v>45849.63219907408</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1710,14 +1700,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 21379-2023</t>
+          <t>A 45167-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45063.34819444444</v>
+        <v>45919.49364583333</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1730,7 +1720,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5.8</v>
+        <v>0.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1767,14 +1757,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 57000-2025</t>
+          <t>A 45158-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45977</v>
+        <v>45919.48245370371</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1787,7 +1777,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1824,14 +1814,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 57655-2025</t>
+          <t>A 45088-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45981.40369212963</v>
+        <v>45919.37598379629</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1844,7 +1834,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1881,14 +1871,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 60392-2022</t>
+          <t>A 1379-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44910</v>
+        <v>45303.55193287037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1900,8 +1890,13 @@
           <t>TJÖRN</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1938,14 +1933,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 59011-2025</t>
+          <t>A 61627-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45987</v>
+        <v>45646.66263888889</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1957,8 +1952,13 @@
           <t>TJÖRN</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1995,14 +1995,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 7787-2023</t>
+          <t>A 7791-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
         <v>44973</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5.7</v>
+        <v>3.1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2052,14 +2052,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 2434-2026</t>
+          <t>A 57000-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>46036.86722222222</v>
+        <v>45977</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2109,14 +2109,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 2433-2026</t>
+          <t>A 57655-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>46036.86631944445</v>
+        <v>45981.40369212963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2166,14 +2166,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 60717-2022</t>
+          <t>A 2434-2026</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44912.89078703704</v>
+        <v>46036.86722222222</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2223,14 +2223,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 43229-2024</t>
+          <t>A 34591-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45567.88697916667</v>
+        <v>44795.3778587963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>9.699999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2280,14 +2280,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 59192-2022</t>
+          <t>A 2433-2026</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44896</v>
+        <v>46036.86631944445</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2337,14 +2337,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 7791-2023</t>
+          <t>A 63664-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44973</v>
+        <v>45275.62074074074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2394,14 +2394,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 769-2023</t>
+          <t>A 60793-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44931</v>
+        <v>45260.6534375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2451,14 +2451,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 1486-2023</t>
+          <t>A 57955-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44937</v>
+        <v>45631.56939814815</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2508,14 +2508,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 60793-2023</t>
+          <t>A 59011-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45260.6534375</v>
+        <v>45987</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2565,14 +2565,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 57410-2022</t>
+          <t>A 21141-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44896</v>
+        <v>45062</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2622,14 +2622,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 31486-2021</t>
+          <t>A 60392-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44369.43783564815</v>
+        <v>44910</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2679,14 +2679,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 63664-2023</t>
+          <t>A 59192-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45275.62074074074</v>
+        <v>44896</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2736,14 +2736,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 57955-2024</t>
+          <t>A 60717-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45631.56939814815</v>
+        <v>44912.89078703704</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2793,14 +2793,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 23295-2025</t>
+          <t>A 23301-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45791.59071759259</v>
+        <v>45791.59498842592</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>45791.58967592593</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2907,14 +2907,14 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 23301-2025</t>
+          <t>A 23295-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45791.59498842592</v>
+        <v>45791.59071759259</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>

--- a/Översikt TJÖRN.xlsx
+++ b/Översikt TJÖRN.xlsx
@@ -575,7 +575,7 @@
         <v>45789.38215277778</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45974.59738425926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>46029</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,14 +845,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 1486-2023</t>
+          <t>A 57955-2024</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44937</v>
+        <v>45631.56939814815</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -902,14 +902,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 60718-2022</t>
+          <t>A 42462-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44912.89109953704</v>
+        <v>45905.45730324074</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -959,14 +959,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 31486-2021</t>
+          <t>A 23295-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44369.43783564815</v>
+        <v>45791.59071759259</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.8</v>
+        <v>2.2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1016,14 +1016,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 57410-2022</t>
+          <t>A 23294-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44896</v>
+        <v>45791.58967592593</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>7.5</v>
+        <v>4.6</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1073,14 +1073,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 43229-2024</t>
+          <t>A 23301-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45567.88697916667</v>
+        <v>45791.59498842592</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>9.699999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1130,14 +1130,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 1103-2025</t>
+          <t>A 45167-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45666</v>
+        <v>45919.49364583333</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1187,14 +1187,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 769-2023</t>
+          <t>A 45088-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44931</v>
+        <v>45919.37598379629</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1244,14 +1244,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 21379-2023</t>
+          <t>A 45158-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45063.34819444444</v>
+        <v>45919.48245370371</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5.8</v>
+        <v>2.7</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1301,14 +1301,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 34394-2025</t>
+          <t>A 21141-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45846.58854166666</v>
+        <v>45062</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1358,14 +1358,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 32577-2025</t>
+          <t>A 1103-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45838</v>
+        <v>45666</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5.3</v>
+        <v>1.6</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1415,14 +1415,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 34508-2025</t>
+          <t>A 1379-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45847.44315972222</v>
+        <v>45303.55193287037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1434,8 +1434,13 @@
           <t>TJÖRN</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1472,14 +1477,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 7787-2023</t>
+          <t>A 61627-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44973</v>
+        <v>45646.66263888889</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1491,8 +1496,13 @@
           <t>TJÖRN</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>5.7</v>
+        <v>2.1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1529,14 +1539,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 42462-2025</t>
+          <t>A 34508-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45905.45730324074</v>
+        <v>45847.44315972222</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1549,7 +1559,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1586,14 +1596,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 34939-2025</t>
+          <t>A 34394-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45849.58229166667</v>
+        <v>45846.58854166666</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1606,7 +1616,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>7.8</v>
+        <v>3.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1643,14 +1653,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 34963-2025</t>
+          <t>A 32577-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45849.63219907408</v>
+        <v>45838</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1663,7 +1673,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1700,14 +1710,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 45167-2025</t>
+          <t>A 34591-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45919.49364583333</v>
+        <v>44795.3778587963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1720,7 +1730,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1757,14 +1767,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 45158-2025</t>
+          <t>A 34939-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45919.48245370371</v>
+        <v>45849.58229166667</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1777,7 +1787,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.7</v>
+        <v>7.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1814,14 +1824,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 45088-2025</t>
+          <t>A 34963-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45919.37598379629</v>
+        <v>45849.63219907408</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1834,7 +1844,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1871,14 +1881,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 1379-2024</t>
+          <t>A 60718-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45303.55193287037</v>
+        <v>44912.89109953704</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1890,13 +1900,8 @@
           <t>TJÖRN</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1933,14 +1938,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 61627-2024</t>
+          <t>A 21379-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45646.66263888889</v>
+        <v>45063.34819444444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1952,13 +1957,8 @@
           <t>TJÖRN</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>2.1</v>
+        <v>5.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1995,14 +1995,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 7791-2023</t>
+          <t>A 57000-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44973</v>
+        <v>45977</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2052,14 +2052,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 57000-2025</t>
+          <t>A 57655-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45977</v>
+        <v>45981.40369212963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2109,14 +2109,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 57655-2025</t>
+          <t>A 60392-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45981.40369212963</v>
+        <v>44910</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2166,14 +2166,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 2434-2026</t>
+          <t>A 7787-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>46036.86722222222</v>
+        <v>44973</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.2</v>
+        <v>5.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2223,14 +2223,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 34591-2022</t>
+          <t>A 2434-2026</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44795.3778587963</v>
+        <v>46036.86722222222</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>46036.86631944445</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2337,14 +2337,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 63664-2023</t>
+          <t>A 60717-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45275.62074074074</v>
+        <v>44912.89078703704</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2394,14 +2394,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 60793-2023</t>
+          <t>A 43229-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45260.6534375</v>
+        <v>45567.88697916667</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2451,14 +2451,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 57955-2024</t>
+          <t>A 59192-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45631.56939814815</v>
+        <v>44896</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2508,14 +2508,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 59011-2025</t>
+          <t>A 7791-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45987</v>
+        <v>44973</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2565,14 +2565,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 21141-2023</t>
+          <t>A 769-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45062</v>
+        <v>44931</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2622,14 +2622,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 60392-2022</t>
+          <t>A 1486-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44910</v>
+        <v>44937</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.1</v>
+        <v>0.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2679,14 +2679,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 59192-2022</t>
+          <t>A 60793-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44896</v>
+        <v>45260.6534375</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2736,14 +2736,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 60717-2022</t>
+          <t>A 59011-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44912.89078703704</v>
+        <v>45987</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2793,14 +2793,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 23301-2025</t>
+          <t>A 57410-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45791.59498842592</v>
+        <v>44896</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2850,14 +2850,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 23294-2025</t>
+          <t>A 31486-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45791.58967592593</v>
+        <v>44369.43783564815</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2907,14 +2907,14 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 23295-2025</t>
+          <t>A 63664-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45791.59071759259</v>
+        <v>45275.62074074074</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>

--- a/Översikt TJÖRN.xlsx
+++ b/Översikt TJÖRN.xlsx
@@ -575,7 +575,7 @@
         <v>45789.38215277778</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45974.59738425926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>46029</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,14 +845,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 57955-2024</t>
+          <t>A 60718-2022</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45631.56939814815</v>
+        <v>44912.89109953704</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -902,14 +902,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 42462-2025</t>
+          <t>A 31486-2021</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45905.45730324074</v>
+        <v>44369.43783564815</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -959,14 +959,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 23295-2025</t>
+          <t>A 7791-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45791.59071759259</v>
+        <v>44973</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1016,14 +1016,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 23294-2025</t>
+          <t>A 57410-2022</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45791.58967592593</v>
+        <v>44896</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.6</v>
+        <v>7.5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1073,14 +1073,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 23301-2025</t>
+          <t>A 1486-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45791.59498842592</v>
+        <v>44937</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.9</v>
+        <v>0.2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1130,14 +1130,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 45167-2025</t>
+          <t>A 43229-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45919.49364583333</v>
+        <v>45567.88697916667</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1187,14 +1187,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 45088-2025</t>
+          <t>A 769-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45919.37598379629</v>
+        <v>44931</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1244,14 +1244,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 45158-2025</t>
+          <t>A 21379-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45919.48245370371</v>
+        <v>45063.34819444444</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.7</v>
+        <v>5.8</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1301,14 +1301,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 21141-2023</t>
+          <t>A 1103-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45062</v>
+        <v>45666</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1358,14 +1358,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 1103-2025</t>
+          <t>A 21141-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45666</v>
+        <v>45062</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1415,14 +1415,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 1379-2024</t>
+          <t>A 7787-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45303.55193287037</v>
+        <v>44973</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1434,13 +1434,8 @@
           <t>TJÖRN</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>1.5</v>
+        <v>5.7</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1477,14 +1472,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 61627-2024</t>
+          <t>A 34591-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45646.66263888889</v>
+        <v>44795.3778587963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1496,13 +1491,8 @@
           <t>TJÖRN</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1539,14 +1529,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 34508-2025</t>
+          <t>A 34394-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45847.44315972222</v>
+        <v>45846.58854166666</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1559,7 +1549,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1596,14 +1586,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 34394-2025</t>
+          <t>A 32577-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45846.58854166666</v>
+        <v>45838</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1616,7 +1606,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.9</v>
+        <v>5.3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1653,14 +1643,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 32577-2025</t>
+          <t>A 34508-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45838</v>
+        <v>45847.44315972222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1673,7 +1663,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>5.3</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1710,14 +1700,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 34591-2022</t>
+          <t>A 34939-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44795.3778587963</v>
+        <v>45849.58229166667</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1730,7 +1720,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.5</v>
+        <v>7.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1767,14 +1757,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 34939-2025</t>
+          <t>A 34963-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45849.58229166667</v>
+        <v>45849.63219907408</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1787,7 +1777,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>7.8</v>
+        <v>1.1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1824,14 +1814,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 34963-2025</t>
+          <t>A 63664-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45849.63219907408</v>
+        <v>45275.62074074074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1844,7 +1834,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1881,14 +1871,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 60718-2022</t>
+          <t>A 60793-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44912.89109953704</v>
+        <v>45260.6534375</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1901,7 +1891,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1938,14 +1928,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 21379-2023</t>
+          <t>A 57955-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45063.34819444444</v>
+        <v>45631.56939814815</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1958,7 +1948,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5.8</v>
+        <v>0.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1995,14 +1985,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 57000-2025</t>
+          <t>A 60392-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45977</v>
+        <v>44910</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2015,7 +2005,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2052,14 +2042,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 57655-2025</t>
+          <t>A 59192-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45981.40369212963</v>
+        <v>44896</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2072,7 +2062,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2109,14 +2099,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 60392-2022</t>
+          <t>A 60717-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44910</v>
+        <v>44912.89078703704</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2129,7 +2119,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2166,14 +2156,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 7787-2023</t>
+          <t>A 42462-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44973</v>
+        <v>45905.45730324074</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2186,7 +2176,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5.7</v>
+        <v>2.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2223,14 +2213,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 2434-2026</t>
+          <t>A 45167-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>46036.86722222222</v>
+        <v>45919.49364583333</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2243,7 +2233,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2280,14 +2270,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 2433-2026</t>
+          <t>A 45158-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>46036.86631944445</v>
+        <v>45919.48245370371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2300,7 +2290,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2337,14 +2327,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 60717-2022</t>
+          <t>A 45088-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44912.89078703704</v>
+        <v>45919.37598379629</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2357,7 +2347,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2394,14 +2384,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 43229-2024</t>
+          <t>A 1379-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45567.88697916667</v>
+        <v>45303.55193287037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2413,8 +2403,13 @@
           <t>TJÖRN</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>9.699999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2451,14 +2446,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 59192-2022</t>
+          <t>A 61627-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44896</v>
+        <v>45646.66263888889</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2470,8 +2465,13 @@
           <t>TJÖRN</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2508,14 +2508,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 7791-2023</t>
+          <t>A 23301-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44973</v>
+        <v>45791.59498842592</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2565,14 +2565,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 769-2023</t>
+          <t>A 23294-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44931</v>
+        <v>45791.58967592593</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.7</v>
+        <v>4.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2622,14 +2622,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 1486-2023</t>
+          <t>A 23295-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44937</v>
+        <v>45791.59071759259</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.2</v>
+        <v>2.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2679,14 +2679,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 60793-2023</t>
+          <t>A 57000-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45260.6534375</v>
+        <v>45977</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2736,14 +2736,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 59011-2025</t>
+          <t>A 57655-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45987</v>
+        <v>45981.40369212963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2793,14 +2793,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 57410-2022</t>
+          <t>A 2434-2026</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44896</v>
+        <v>46036.86722222222</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>7.5</v>
+        <v>1.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2850,14 +2850,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 31486-2021</t>
+          <t>A 2433-2026</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44369.43783564815</v>
+        <v>46036.86631944445</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.8</v>
+        <v>2.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2907,14 +2907,14 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 63664-2023</t>
+          <t>A 59011-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45275.62074074074</v>
+        <v>45987</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>

--- a/Översikt TJÖRN.xlsx
+++ b/Översikt TJÖRN.xlsx
@@ -575,7 +575,7 @@
         <v>45789.38215277778</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45974.59738425926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>46029</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,14 +845,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 60718-2022</t>
+          <t>A 59011-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44912.89109953704</v>
+        <v>45987</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -902,14 +902,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 31486-2021</t>
+          <t>A 1103-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44369.43783564815</v>
+        <v>45666</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.8</v>
+        <v>1.6</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -959,14 +959,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 7791-2023</t>
+          <t>A 21141-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44973</v>
+        <v>45062</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1016,14 +1016,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 57410-2022</t>
+          <t>A 34508-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44896</v>
+        <v>45847.44315972222</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1073,14 +1073,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 1486-2023</t>
+          <t>A 34394-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44937</v>
+        <v>45846.58854166666</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.2</v>
+        <v>3.9</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1130,14 +1130,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 43229-2024</t>
+          <t>A 32577-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45567.88697916667</v>
+        <v>45838</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>9.699999999999999</v>
+        <v>5.3</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1187,14 +1187,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 769-2023</t>
+          <t>A 42462-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44931</v>
+        <v>45905.45730324074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1244,14 +1244,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 21379-2023</t>
+          <t>A 34939-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45063.34819444444</v>
+        <v>45849.58229166667</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5.8</v>
+        <v>7.8</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1301,14 +1301,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 1103-2025</t>
+          <t>A 34963-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45666</v>
+        <v>45849.63219907408</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1358,14 +1358,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 21141-2023</t>
+          <t>A 34591-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45062</v>
+        <v>44795.3778587963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1415,14 +1415,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 7787-2023</t>
+          <t>A 45167-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44973</v>
+        <v>45919.49364583333</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5.7</v>
+        <v>0.6</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1472,14 +1472,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 34591-2022</t>
+          <t>A 45088-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44795.3778587963</v>
+        <v>45919.37598379629</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1529,14 +1529,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 34394-2025</t>
+          <t>A 45158-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45846.58854166666</v>
+        <v>45919.48245370371</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1586,14 +1586,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 32577-2025</t>
+          <t>A 60718-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45838</v>
+        <v>44912.89109953704</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5.3</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1643,14 +1643,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 34508-2025</t>
+          <t>A 21379-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45847.44315972222</v>
+        <v>45063.34819444444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>5.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1700,14 +1700,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 34939-2025</t>
+          <t>A 1379-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45849.58229166667</v>
+        <v>45303.55193287037</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1719,8 +1719,13 @@
           <t>TJÖRN</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G20" t="n">
-        <v>7.8</v>
+        <v>1.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1757,14 +1762,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 34963-2025</t>
+          <t>A 61627-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45849.63219907408</v>
+        <v>45646.66263888889</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1776,8 +1781,13 @@
           <t>TJÖRN</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1814,14 +1824,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 63664-2023</t>
+          <t>A 60392-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45275.62074074074</v>
+        <v>44910</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1834,7 +1844,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1871,14 +1881,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 60793-2023</t>
+          <t>A 7787-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45260.6534375</v>
+        <v>44973</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1891,7 +1901,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.7</v>
+        <v>5.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1928,14 +1938,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 57955-2024</t>
+          <t>A 60717-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45631.56939814815</v>
+        <v>44912.89078703704</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +1958,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1985,14 +1995,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 60392-2022</t>
+          <t>A 57000-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44910</v>
+        <v>45977</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2005,7 +2015,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2042,14 +2052,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 59192-2022</t>
+          <t>A 57655-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44896</v>
+        <v>45981.40369212963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2062,7 +2072,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2099,14 +2109,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 60717-2022</t>
+          <t>A 43229-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44912.89078703704</v>
+        <v>45567.88697916667</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2119,7 +2129,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2156,14 +2166,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 42462-2025</t>
+          <t>A 59192-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45905.45730324074</v>
+        <v>44896</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2176,7 +2186,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2213,14 +2223,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 45167-2025</t>
+          <t>A 2434-2026</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45919.49364583333</v>
+        <v>46036.86722222222</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2233,7 +2243,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2270,14 +2280,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 45158-2025</t>
+          <t>A 7791-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45919.48245370371</v>
+        <v>44973</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2290,7 +2300,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2327,14 +2337,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 45088-2025</t>
+          <t>A 2433-2026</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45919.37598379629</v>
+        <v>46036.86631944445</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2347,7 +2357,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2384,14 +2394,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 1379-2024</t>
+          <t>A 769-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45303.55193287037</v>
+        <v>44931</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2403,13 +2413,8 @@
           <t>TJÖRN</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2446,14 +2451,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 61627-2024</t>
+          <t>A 1486-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45646.66263888889</v>
+        <v>44937</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2465,13 +2470,8 @@
           <t>TJÖRN</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>2.1</v>
+        <v>0.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2508,14 +2508,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 23301-2025</t>
+          <t>A 60793-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45791.59498842592</v>
+        <v>45260.6534375</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2565,14 +2565,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 23294-2025</t>
+          <t>A 57410-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45791.58967592593</v>
+        <v>44896</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.6</v>
+        <v>7.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2622,14 +2622,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 23295-2025</t>
+          <t>A 31486-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45791.59071759259</v>
+        <v>44369.43783564815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.2</v>
+        <v>4.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2679,14 +2679,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 57000-2025</t>
+          <t>A 63664-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45977</v>
+        <v>45275.62074074074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2736,14 +2736,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 57655-2025</t>
+          <t>A 57955-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45981.40369212963</v>
+        <v>45631.56939814815</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2793,14 +2793,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 2434-2026</t>
+          <t>A 23295-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>46036.86722222222</v>
+        <v>45791.59071759259</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2850,14 +2850,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 2433-2026</t>
+          <t>A 23294-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>46036.86631944445</v>
+        <v>45791.58967592593</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.6</v>
+        <v>4.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2907,14 +2907,14 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 59011-2025</t>
+          <t>A 23301-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45987</v>
+        <v>45791.59498842592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>

--- a/Översikt TJÖRN.xlsx
+++ b/Översikt TJÖRN.xlsx
@@ -575,7 +575,7 @@
         <v>45789.38215277778</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45974.59738425926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>46029</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,14 +845,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 59011-2025</t>
+          <t>A 23295-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45987</v>
+        <v>45791.59071759259</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -902,14 +902,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 1103-2025</t>
+          <t>A 23294-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45666</v>
+        <v>45791.58967592593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.6</v>
+        <v>4.6</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -959,14 +959,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 21141-2023</t>
+          <t>A 23301-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45062</v>
+        <v>45791.59498842592</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1016,14 +1016,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 34508-2025</t>
+          <t>A 42462-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45847.44315972222</v>
+        <v>45905.45730324074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1073,14 +1073,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 34394-2025</t>
+          <t>A 1103-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45846.58854166666</v>
+        <v>45666</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1130,14 +1130,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 32577-2025</t>
+          <t>A 45167-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45838</v>
+        <v>45919.49364583333</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5.3</v>
+        <v>0.6</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1187,14 +1187,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 42462-2025</t>
+          <t>A 45088-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45905.45730324074</v>
+        <v>45919.37598379629</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1244,14 +1244,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 34939-2025</t>
+          <t>A 45158-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45849.58229166667</v>
+        <v>45919.48245370371</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>7.8</v>
+        <v>2.7</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1301,14 +1301,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 34963-2025</t>
+          <t>A 34508-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45849.63219907408</v>
+        <v>45847.44315972222</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1358,14 +1358,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 34591-2022</t>
+          <t>A 34394-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44795.3778587963</v>
+        <v>45846.58854166666</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1415,14 +1415,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 45167-2025</t>
+          <t>A 21141-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45919.49364583333</v>
+        <v>45062</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1472,14 +1472,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 45088-2025</t>
+          <t>A 32577-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45919.37598379629</v>
+        <v>45838</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.9</v>
+        <v>5.3</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1529,14 +1529,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 45158-2025</t>
+          <t>A 1379-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45919.48245370371</v>
+        <v>45303.55193287037</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1548,8 +1548,13 @@
           <t>TJÖRN</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G17" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1586,14 +1591,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 60718-2022</t>
+          <t>A 61627-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44912.89109953704</v>
+        <v>45646.66263888889</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1605,8 +1610,13 @@
           <t>TJÖRN</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1643,14 +1653,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 21379-2023</t>
+          <t>A 34939-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45063.34819444444</v>
+        <v>45849.58229166667</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1663,7 +1673,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>5.8</v>
+        <v>7.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1700,14 +1710,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 1379-2024</t>
+          <t>A 34963-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45303.55193287037</v>
+        <v>45849.63219907408</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1719,13 +1729,8 @@
           <t>TJÖRN</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1762,14 +1767,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 61627-2024</t>
+          <t>A 34591-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45646.66263888889</v>
+        <v>44795.3778587963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1781,13 +1786,8 @@
           <t>TJÖRN</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1824,14 +1824,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 60392-2022</t>
+          <t>A 59011-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44910</v>
+        <v>45987</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1881,14 +1881,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 7787-2023</t>
+          <t>A 60718-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44973</v>
+        <v>44912.89109953704</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5.7</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1938,14 +1938,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 60717-2022</t>
+          <t>A 57000-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44912.89078703704</v>
+        <v>45977</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1995,14 +1995,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 57000-2025</t>
+          <t>A 57655-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45977</v>
+        <v>45981.40369212963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2052,14 +2052,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 57655-2025</t>
+          <t>A 21379-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45981.40369212963</v>
+        <v>45063.34819444444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.4</v>
+        <v>5.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2109,14 +2109,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 43229-2024</t>
+          <t>A 2434-2026</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45567.88697916667</v>
+        <v>46036.86722222222</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>9.699999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2166,14 +2166,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 59192-2022</t>
+          <t>A 2433-2026</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44896</v>
+        <v>46036.86631944445</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2223,14 +2223,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 2434-2026</t>
+          <t>A 60392-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>46036.86722222222</v>
+        <v>44910</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.2</v>
+        <v>4.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2280,14 +2280,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 7791-2023</t>
+          <t>A 7787-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
         <v>44973</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.1</v>
+        <v>5.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2337,14 +2337,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 2433-2026</t>
+          <t>A 60717-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>46036.86631944445</v>
+        <v>44912.89078703704</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2394,14 +2394,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 769-2023</t>
+          <t>A 43229-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44931</v>
+        <v>45567.88697916667</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2451,14 +2451,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 1486-2023</t>
+          <t>A 59192-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44937</v>
+        <v>44896</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2508,14 +2508,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 60793-2023</t>
+          <t>A 7791-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45260.6534375</v>
+        <v>44973</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2565,14 +2565,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 57410-2022</t>
+          <t>A 769-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44896</v>
+        <v>44931</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>7.5</v>
+        <v>1.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2622,14 +2622,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 31486-2021</t>
+          <t>A 1486-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44369.43783564815</v>
+        <v>44937</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.8</v>
+        <v>0.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2679,14 +2679,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 63664-2023</t>
+          <t>A 60793-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45275.62074074074</v>
+        <v>45260.6534375</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2736,14 +2736,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 57955-2024</t>
+          <t>A 57410-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45631.56939814815</v>
+        <v>44896</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.9</v>
+        <v>7.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2793,14 +2793,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 23295-2025</t>
+          <t>A 31486-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45791.59071759259</v>
+        <v>44369.43783564815</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.2</v>
+        <v>4.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2850,14 +2850,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 23294-2025</t>
+          <t>A 63664-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45791.58967592593</v>
+        <v>45275.62074074074</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2907,14 +2907,14 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 23301-2025</t>
+          <t>A 57955-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45791.59498842592</v>
+        <v>45631.56939814815</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>

--- a/Översikt TJÖRN.xlsx
+++ b/Översikt TJÖRN.xlsx
@@ -575,7 +575,7 @@
         <v>45789.38215277778</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45974.59738425926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>46029</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>45791.59071759259</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>45791.58967592593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>45791.59498842592</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1016,14 +1016,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 42462-2025</t>
+          <t>A 57000-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45905.45730324074</v>
+        <v>45977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1073,14 +1073,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 1103-2025</t>
+          <t>A 57655-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45666</v>
+        <v>45981.40369212963</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1130,14 +1130,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 45167-2025</t>
+          <t>A 42462-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45919.49364583333</v>
+        <v>45905.45730324074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1187,14 +1187,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 45088-2025</t>
+          <t>A 45167-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45919.37598379629</v>
+        <v>45919.49364583333</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1244,14 +1244,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 45158-2025</t>
+          <t>A 45088-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45919.48245370371</v>
+        <v>45919.37598379629</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1301,14 +1301,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 34508-2025</t>
+          <t>A 45158-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45847.44315972222</v>
+        <v>45919.48245370371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1358,14 +1358,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 34394-2025</t>
+          <t>A 1103-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45846.58854166666</v>
+        <v>45666</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1415,14 +1415,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 21141-2023</t>
+          <t>A 1379-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45062</v>
+        <v>45303.55193287037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1434,8 +1434,13 @@
           <t>TJÖRN</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1472,14 +1477,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 32577-2025</t>
+          <t>A 61627-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45838</v>
+        <v>45646.66263888889</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1491,8 +1496,13 @@
           <t>TJÖRN</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>5.3</v>
+        <v>2.1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1529,14 +1539,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 1379-2024</t>
+          <t>A 21141-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45303.55193287037</v>
+        <v>45062</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1548,13 +1558,8 @@
           <t>TJÖRN</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G17" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1591,14 +1596,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 61627-2024</t>
+          <t>A 34508-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45646.66263888889</v>
+        <v>45847.44315972222</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1610,13 +1615,8 @@
           <t>TJÖRN</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1653,14 +1653,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 34939-2025</t>
+          <t>A 34394-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45849.58229166667</v>
+        <v>45846.58854166666</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>7.8</v>
+        <v>3.9</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1710,14 +1710,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 34963-2025</t>
+          <t>A 32577-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45849.63219907408</v>
+        <v>45838</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1767,14 +1767,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 34591-2022</t>
+          <t>A 34939-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44795.3778587963</v>
+        <v>45849.58229166667</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.5</v>
+        <v>7.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1824,14 +1824,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 59011-2025</t>
+          <t>A 34963-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45987</v>
+        <v>45849.63219907408</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1881,14 +1881,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 60718-2022</t>
+          <t>A 34591-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44912.89109953704</v>
+        <v>44795.3778587963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1938,14 +1938,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 57000-2025</t>
+          <t>A 2434-2026</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45977</v>
+        <v>46036.86722222222</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1995,14 +1995,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 57655-2025</t>
+          <t>A 2433-2026</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45981.40369212963</v>
+        <v>46036.86631944445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2052,14 +2052,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 21379-2023</t>
+          <t>A 60718-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45063.34819444444</v>
+        <v>44912.89109953704</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>5.8</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2109,14 +2109,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 2434-2026</t>
+          <t>A 21379-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>46036.86722222222</v>
+        <v>45063.34819444444</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.2</v>
+        <v>5.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2166,14 +2166,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 2433-2026</t>
+          <t>A 60392-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>46036.86631944445</v>
+        <v>44910</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2223,14 +2223,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 60392-2022</t>
+          <t>A 7787-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44910</v>
+        <v>44973</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.1</v>
+        <v>5.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2280,14 +2280,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 7787-2023</t>
+          <t>A 59011-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44973</v>
+        <v>45987</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>5.7</v>
+        <v>2.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2344,7 +2344,7 @@
         <v>44912.89078703704</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>45567.88697916667</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44896</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>44973</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>44931</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>44937</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>45260.6534375</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44896</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>44369.43783564815</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>45275.62074074074</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>45631.56939814815</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>

--- a/Översikt TJÖRN.xlsx
+++ b/Översikt TJÖRN.xlsx
@@ -575,7 +575,7 @@
         <v>45789.38215277778</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45974.59738425926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>46029</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,14 +845,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 23295-2025</t>
+          <t>A 1379-2024</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45791.59071759259</v>
+        <v>45303.55193287037</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -864,8 +864,13 @@
           <t>TJÖRN</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -902,14 +907,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 23294-2025</t>
+          <t>A 61627-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45791.58967592593</v>
+        <v>45646.66263888889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -921,8 +926,13 @@
           <t>TJÖRN</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G6" t="n">
-        <v>4.6</v>
+        <v>2.1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -959,14 +969,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 23301-2025</t>
+          <t>A 1486-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45791.59498842592</v>
+        <v>44937</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -979,7 +989,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.9</v>
+        <v>0.2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1016,14 +1026,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 57000-2025</t>
+          <t>A 23301-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45977</v>
+        <v>45791.59498842592</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1036,7 +1046,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1073,14 +1083,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 57655-2025</t>
+          <t>A 23294-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45981.40369212963</v>
+        <v>45791.58967592593</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1093,7 +1103,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1130,14 +1140,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 42462-2025</t>
+          <t>A 23295-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45905.45730324074</v>
+        <v>45791.59071759259</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1150,7 +1160,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1187,14 +1197,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 45167-2025</t>
+          <t>A 42462-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45919.49364583333</v>
+        <v>45905.45730324074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1207,7 +1217,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1244,14 +1254,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 45088-2025</t>
+          <t>A 60718-2022</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45919.37598379629</v>
+        <v>44912.89109953704</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1264,7 +1274,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1301,14 +1311,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 45158-2025</t>
+          <t>A 45167-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45919.48245370371</v>
+        <v>45919.49364583333</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1321,7 +1331,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1358,14 +1368,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 1103-2025</t>
+          <t>A 31486-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45666</v>
+        <v>44369.43783564815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1378,7 +1388,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.6</v>
+        <v>4.8</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1415,14 +1425,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 1379-2024</t>
+          <t>A 45158-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45303.55193287037</v>
+        <v>45919.48245370371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1434,13 +1444,8 @@
           <t>TJÖRN</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1477,14 +1482,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 61627-2024</t>
+          <t>A 45088-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45646.66263888889</v>
+        <v>45919.37598379629</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1496,13 +1501,8 @@
           <t>TJÖRN</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1539,14 +1539,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 21141-2023</t>
+          <t>A 57410-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45062</v>
+        <v>44896</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1596,14 +1596,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 34508-2025</t>
+          <t>A 43229-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45847.44315972222</v>
+        <v>45567.88697916667</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1653,14 +1653,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 34394-2025</t>
+          <t>A 57000-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45846.58854166666</v>
+        <v>45977</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1710,14 +1710,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 32577-2025</t>
+          <t>A 1103-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45838</v>
+        <v>45666</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5.3</v>
+        <v>1.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1767,14 +1767,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 34939-2025</t>
+          <t>A 57655-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45849.58229166667</v>
+        <v>45981.40369212963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>7.8</v>
+        <v>3.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1824,14 +1824,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 34963-2025</t>
+          <t>A 769-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45849.63219907408</v>
+        <v>44931</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1881,14 +1881,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 34591-2022</t>
+          <t>A 21379-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44795.3778587963</v>
+        <v>45063.34819444444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>5.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1938,14 +1938,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 2434-2026</t>
+          <t>A 34394-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>46036.86722222222</v>
+        <v>45846.58854166666</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1995,14 +1995,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 2433-2026</t>
+          <t>A 32577-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>46036.86631944445</v>
+        <v>45838</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.6</v>
+        <v>5.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2052,14 +2052,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 60718-2022</t>
+          <t>A 34508-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44912.89109953704</v>
+        <v>45847.44315972222</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2109,14 +2109,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 21379-2023</t>
+          <t>A 2434-2026</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45063.34819444444</v>
+        <v>46036.86722222222</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>5.8</v>
+        <v>1.2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2166,14 +2166,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 60392-2022</t>
+          <t>A 2433-2026</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44910</v>
+        <v>46036.86631944445</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>44973</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2280,14 +2280,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 59011-2025</t>
+          <t>A 34939-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45987</v>
+        <v>45849.58229166667</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.7</v>
+        <v>7.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2337,14 +2337,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 60717-2022</t>
+          <t>A 34963-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44912.89078703704</v>
+        <v>45849.63219907408</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2394,14 +2394,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 43229-2024</t>
+          <t>A 59011-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45567.88697916667</v>
+        <v>45987</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>9.699999999999999</v>
+        <v>2.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2451,14 +2451,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 59192-2022</t>
+          <t>A 7791-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44896</v>
+        <v>44973</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2508,14 +2508,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 7791-2023</t>
+          <t>A 34591-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44973</v>
+        <v>44795.3778587963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2565,14 +2565,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 769-2023</t>
+          <t>A 63664-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44931</v>
+        <v>45275.62074074074</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2622,14 +2622,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 1486-2023</t>
+          <t>A 60793-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44937</v>
+        <v>45260.6534375</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2679,14 +2679,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 60793-2023</t>
+          <t>A 57955-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45260.6534375</v>
+        <v>45631.56939814815</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2736,14 +2736,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 57410-2022</t>
+          <t>A 21141-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44896</v>
+        <v>45062</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2793,14 +2793,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 31486-2021</t>
+          <t>A 60392-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44369.43783564815</v>
+        <v>44910</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2850,14 +2850,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 63664-2023</t>
+          <t>A 59192-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45275.62074074074</v>
+        <v>44896</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2907,14 +2907,14 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 57955-2024</t>
+          <t>A 60717-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45631.56939814815</v>
+        <v>44912.89078703704</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>

--- a/Översikt TJÖRN.xlsx
+++ b/Översikt TJÖRN.xlsx
@@ -575,7 +575,7 @@
         <v>45789.38215277778</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45974.59738425926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>46029</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,14 +845,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 1379-2024</t>
+          <t>A 1103-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45303.55193287037</v>
+        <v>45666</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -864,13 +864,8 @@
           <t>TJÖRN</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G5" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -907,14 +902,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 61627-2024</t>
+          <t>A 21141-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45646.66263888889</v>
+        <v>45062</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -926,13 +921,8 @@
           <t>TJÖRN</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G6" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -969,14 +959,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 1486-2023</t>
+          <t>A 42462-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44937</v>
+        <v>45905.45730324074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -989,7 +979,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.2</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1026,14 +1016,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 23301-2025</t>
+          <t>A 34508-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45791.59498842592</v>
+        <v>45847.44315972222</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1046,7 +1036,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1083,14 +1073,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 23294-2025</t>
+          <t>A 34394-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45791.58967592593</v>
+        <v>45846.58854166666</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1103,7 +1093,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1140,14 +1130,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 23295-2025</t>
+          <t>A 32577-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45791.59071759259</v>
+        <v>45838</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1160,7 +1150,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.2</v>
+        <v>5.3</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1197,14 +1187,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 42462-2025</t>
+          <t>A 45167-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45905.45730324074</v>
+        <v>45919.49364583333</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1217,7 +1207,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1254,14 +1244,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 60718-2022</t>
+          <t>A 45088-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44912.89109953704</v>
+        <v>45919.37598379629</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1274,7 +1264,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1311,14 +1301,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 45167-2025</t>
+          <t>A 45158-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45919.49364583333</v>
+        <v>45919.48245370371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1331,7 +1321,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1368,14 +1358,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 31486-2021</t>
+          <t>A 34939-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44369.43783564815</v>
+        <v>45849.58229166667</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1388,7 +1378,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.8</v>
+        <v>7.8</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1425,14 +1415,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 45158-2025</t>
+          <t>A 34963-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45919.48245370371</v>
+        <v>45849.63219907408</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1445,7 +1435,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1482,14 +1472,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 45088-2025</t>
+          <t>A 34591-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45919.37598379629</v>
+        <v>44795.3778587963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1502,7 +1492,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1539,14 +1529,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 57410-2022</t>
+          <t>A 1379-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44896</v>
+        <v>45303.55193287037</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1558,8 +1548,13 @@
           <t>TJÖRN</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G17" t="n">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1596,14 +1591,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 43229-2024</t>
+          <t>A 61627-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45567.88697916667</v>
+        <v>45646.66263888889</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1615,8 +1610,13 @@
           <t>TJÖRN</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>9.699999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1653,14 +1653,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 57000-2025</t>
+          <t>A 60718-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45977</v>
+        <v>44912.89109953704</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1710,14 +1710,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 1103-2025</t>
+          <t>A 21379-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45666</v>
+        <v>45063.34819444444</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.6</v>
+        <v>5.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1767,14 +1767,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 57655-2025</t>
+          <t>A 60392-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45981.40369212963</v>
+        <v>44910</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1824,14 +1824,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 769-2023</t>
+          <t>A 7787-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44931</v>
+        <v>44973</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.7</v>
+        <v>5.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1881,14 +1881,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 21379-2023</t>
+          <t>A 57000-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45063.34819444444</v>
+        <v>45977</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5.8</v>
+        <v>2.3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1938,14 +1938,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 34394-2025</t>
+          <t>A 57655-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45846.58854166666</v>
+        <v>45981.40369212963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1995,14 +1995,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 32577-2025</t>
+          <t>A 2434-2026</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45838</v>
+        <v>46036.86722222222</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5.3</v>
+        <v>1.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2052,14 +2052,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 34508-2025</t>
+          <t>A 2433-2026</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45847.44315972222</v>
+        <v>46036.86631944445</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2109,14 +2109,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 2434-2026</t>
+          <t>A 60717-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>46036.86722222222</v>
+        <v>44912.89078703704</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2166,14 +2166,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 2433-2026</t>
+          <t>A 43229-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>46036.86631944445</v>
+        <v>45567.88697916667</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2223,14 +2223,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 7787-2023</t>
+          <t>A 59192-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44973</v>
+        <v>44896</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5.7</v>
+        <v>1.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2280,14 +2280,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 34939-2025</t>
+          <t>A 7791-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45849.58229166667</v>
+        <v>44973</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>7.8</v>
+        <v>3.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2337,14 +2337,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 34963-2025</t>
+          <t>A 769-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45849.63219907408</v>
+        <v>44931</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2394,14 +2394,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 59011-2025</t>
+          <t>A 1486-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45987</v>
+        <v>44937</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.7</v>
+        <v>0.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2451,14 +2451,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 7791-2023</t>
+          <t>A 60793-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44973</v>
+        <v>45260.6534375</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2508,14 +2508,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 34591-2022</t>
+          <t>A 59011-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44795.3778587963</v>
+        <v>45987</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2565,14 +2565,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 63664-2023</t>
+          <t>A 57410-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45275.62074074074</v>
+        <v>44896</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2622,14 +2622,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 60793-2023</t>
+          <t>A 31486-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45260.6534375</v>
+        <v>44369.43783564815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.7</v>
+        <v>4.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2679,14 +2679,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 57955-2024</t>
+          <t>A 63664-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45631.56939814815</v>
+        <v>45275.62074074074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2736,14 +2736,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 21141-2023</t>
+          <t>A 57955-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45062</v>
+        <v>45631.56939814815</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2793,14 +2793,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 60392-2022</t>
+          <t>A 23295-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44910</v>
+        <v>45791.59071759259</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2850,14 +2850,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 59192-2022</t>
+          <t>A 23294-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44896</v>
+        <v>45791.58967592593</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.5</v>
+        <v>4.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2907,14 +2907,14 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 60717-2022</t>
+          <t>A 23301-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44912.89078703704</v>
+        <v>45791.59498842592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>

--- a/Översikt TJÖRN.xlsx
+++ b/Översikt TJÖRN.xlsx
@@ -575,7 +575,7 @@
         <v>45789.38215277778</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45974.59738425926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>46029</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>45666</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>45062</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>45905.45730324074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>45847.44315972222</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1080,7 +1080,7 @@
         <v>45846.58854166666</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>45838</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>45919.49364583333</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1251,7 +1251,7 @@
         <v>45919.37598379629</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>45919.48245370371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>45849.58229166667</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>45849.63219907408</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44795.3778587963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>45303.55193287037</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45646.66263888889</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44912.89109953704</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45063.34819444444</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>44910</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>44973</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45977</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>45981.40369212963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>46036.86722222222</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>46036.86631944445</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44912.89078703704</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45567.88697916667</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44896</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>44973</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>44931</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>44937</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>45260.6534375</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>45987</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>44896</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>44369.43783564815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>45275.62074074074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>45631.56939814815</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>45791.59071759259</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>45791.58967592593</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>45791.59498842592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>

--- a/Översikt TJÖRN.xlsx
+++ b/Översikt TJÖRN.xlsx
@@ -575,7 +575,7 @@
         <v>45789.38215277778</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45974.59738425926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>46029</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>45666</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>45062</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>45905.45730324074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>45847.44315972222</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1080,7 +1080,7 @@
         <v>45846.58854166666</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>45838</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>45919.49364583333</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1251,7 +1251,7 @@
         <v>45919.37598379629</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>45919.48245370371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>45849.58229166667</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>45849.63219907408</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44795.3778587963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>45303.55193287037</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45646.66263888889</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44912.89109953704</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45063.34819444444</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>44910</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>44973</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45977</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>45981.40369212963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>46036.86722222222</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>46036.86631944445</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44912.89078703704</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45567.88697916667</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44896</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>44973</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>44931</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>44937</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>45260.6534375</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>45987</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>44896</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>44369.43783564815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>45275.62074074074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>45631.56939814815</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>45791.59071759259</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>45791.58967592593</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>45791.59498842592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>

--- a/Översikt TJÖRN.xlsx
+++ b/Översikt TJÖRN.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z41"/>
+  <dimension ref="A1:Z43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45789.38215277778</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45974.59738425926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>46029</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,14 +845,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 1103-2025</t>
+          <t>A 7787-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45666</v>
+        <v>44973</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.6</v>
+        <v>5.7</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -902,14 +902,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 21141-2023</t>
+          <t>A 43229-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45062</v>
+        <v>45567.88697916667</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -959,14 +959,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 42462-2025</t>
+          <t>A 769-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45905.45730324074</v>
+        <v>44931</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1016,14 +1016,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 34508-2025</t>
+          <t>A 21379-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45847.44315972222</v>
+        <v>45063.34819444444</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>5.8</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1073,14 +1073,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 34394-2025</t>
+          <t>A 1486-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45846.58854166666</v>
+        <v>44937</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.9</v>
+        <v>0.2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1130,14 +1130,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 32577-2025</t>
+          <t>A 7791-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45838</v>
+        <v>44973</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5.3</v>
+        <v>3.1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1187,14 +1187,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 45167-2025</t>
+          <t>A 63664-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45919.49364583333</v>
+        <v>45275.62074074074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1244,14 +1244,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 45088-2025</t>
+          <t>A 60793-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45919.37598379629</v>
+        <v>45260.6534375</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1301,14 +1301,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 45158-2025</t>
+          <t>A 34591-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45919.48245370371</v>
+        <v>44795.3778587963</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1358,14 +1358,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 34939-2025</t>
+          <t>A 57955-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45849.58229166667</v>
+        <v>45631.56939814815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>7.8</v>
+        <v>0.9</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1415,14 +1415,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 34963-2025</t>
+          <t>A 60718-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45849.63219907408</v>
+        <v>44912.89109953704</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1472,14 +1472,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 34591-2022</t>
+          <t>A 31486-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44795.3778587963</v>
+        <v>44369.43783564815</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1529,14 +1529,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 1379-2024</t>
+          <t>A 57410-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45303.55193287037</v>
+        <v>44896</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1548,13 +1548,8 @@
           <t>TJÖRN</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G17" t="n">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1591,14 +1586,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 61627-2024</t>
+          <t>A 42462-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45646.66263888889</v>
+        <v>45905.45730324074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1610,13 +1605,8 @@
           <t>TJÖRN</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1653,14 +1643,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 60718-2022</t>
+          <t>A 21141-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44912.89109953704</v>
+        <v>45062</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1673,7 +1663,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1710,14 +1700,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 21379-2023</t>
+          <t>A 45167-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45063.34819444444</v>
+        <v>45919.49364583333</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1730,7 +1720,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5.8</v>
+        <v>0.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1767,14 +1757,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 60392-2022</t>
+          <t>A 45158-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44910</v>
+        <v>45919.48245370371</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1787,7 +1777,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1824,14 +1814,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 7787-2023</t>
+          <t>A 45088-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44973</v>
+        <v>45919.37598379629</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1844,7 +1834,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5.7</v>
+        <v>0.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1881,14 +1871,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 57000-2025</t>
+          <t>A 1379-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45977</v>
+        <v>45303.55193287037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1900,8 +1890,13 @@
           <t>TJÖRN</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1938,14 +1933,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 57655-2025</t>
+          <t>A 61627-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45981.40369212963</v>
+        <v>45646.66263888889</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1957,8 +1952,13 @@
           <t>TJÖRN</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1995,14 +1995,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 2434-2026</t>
+          <t>A 60392-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>46036.86722222222</v>
+        <v>44910</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.2</v>
+        <v>4.1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2052,14 +2052,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 2433-2026</t>
+          <t>A 59192-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>46036.86631944445</v>
+        <v>44896</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
         <v>44912.89078703704</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2166,14 +2166,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 43229-2024</t>
+          <t>A 57000-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45567.88697916667</v>
+        <v>45977</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>9.699999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2223,14 +2223,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 59192-2022</t>
+          <t>A 57655-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44896</v>
+        <v>45981.40369212963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2280,14 +2280,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 7791-2023</t>
+          <t>A 2434-2026</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44973</v>
+        <v>46036.86722222222</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2337,14 +2337,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 769-2023</t>
+          <t>A 2433-2026</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44931</v>
+        <v>46036.86631944445</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2394,14 +2394,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 1486-2023</t>
+          <t>A 23301-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44937</v>
+        <v>45791.59498842592</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.2</v>
+        <v>2.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2451,14 +2451,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 60793-2023</t>
+          <t>A 23294-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45260.6534375</v>
+        <v>45791.58967592593</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.7</v>
+        <v>4.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2508,14 +2508,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 59011-2025</t>
+          <t>A 23295-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45987</v>
+        <v>45791.59071759259</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2565,14 +2565,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 57410-2022</t>
+          <t>A 59011-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44896</v>
+        <v>45987</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>7.5</v>
+        <v>2.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2622,14 +2622,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 31486-2021</t>
+          <t>A 1103-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44369.43783564815</v>
+        <v>45666</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.8</v>
+        <v>1.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2679,14 +2679,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 63664-2023</t>
+          <t>A 34394-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45275.62074074074</v>
+        <v>45846.58854166666</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2736,14 +2736,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 57955-2024</t>
+          <t>A 10354-2026</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45631.56939814815</v>
+        <v>46075</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2793,14 +2793,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 23295-2025</t>
+          <t>A 32577-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45791.59071759259</v>
+        <v>45838</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.2</v>
+        <v>5.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2850,14 +2850,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 23294-2025</t>
+          <t>A 34508-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45791.58967592593</v>
+        <v>45847.44315972222</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.6</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2904,17 +2904,17 @@
       </c>
       <c r="R40" s="2" t="inlineStr"/>
     </row>
-    <row r="41">
+    <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 23301-2025</t>
+          <t>A 10340-2026</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45791.59498842592</v>
+        <v>46075</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2960,6 +2960,120 @@
         <v>0</v>
       </c>
       <c r="R41" s="2" t="inlineStr"/>
+    </row>
+    <row r="42" ht="15" customHeight="1">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>A 34939-2025</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>45849.58229166667</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>TJÖRN</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" s="2" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>A 34963-2025</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>45849.63219907408</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>TJÖRN</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt TJÖRN.xlsx
+++ b/Översikt TJÖRN.xlsx
@@ -575,7 +575,7 @@
         <v>45789.38215277778</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45974.59738425926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>46029</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,14 +845,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 7787-2023</t>
+          <t>A 1379-2024</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44973</v>
+        <v>45303.55193287037</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -864,8 +864,13 @@
           <t>TJÖRN</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G5" t="n">
-        <v>5.7</v>
+        <v>1.5</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -902,14 +907,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 43229-2024</t>
+          <t>A 61627-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45567.88697916667</v>
+        <v>45646.66263888889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -921,8 +926,13 @@
           <t>TJÖRN</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G6" t="n">
-        <v>9.699999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -959,14 +969,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 769-2023</t>
+          <t>A 23295-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44931</v>
+        <v>45791.59071759259</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -979,7 +989,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1016,14 +1026,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 21379-2023</t>
+          <t>A 23294-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45063.34819444444</v>
+        <v>45791.58967592593</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1036,7 +1046,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5.8</v>
+        <v>4.6</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1073,14 +1083,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 1486-2023</t>
+          <t>A 23301-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44937</v>
+        <v>45791.59498842592</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1093,7 +1103,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.2</v>
+        <v>2.9</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1130,14 +1140,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 7791-2023</t>
+          <t>A 42462-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44973</v>
+        <v>45905.45730324074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1150,7 +1160,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1187,14 +1197,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 63664-2023</t>
+          <t>A 45167-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45275.62074074074</v>
+        <v>45919.49364583333</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1207,7 +1217,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1244,14 +1254,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 60793-2023</t>
+          <t>A 45088-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45260.6534375</v>
+        <v>45919.37598379629</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1264,7 +1274,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1301,14 +1311,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 34591-2022</t>
+          <t>A 45158-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44795.3778587963</v>
+        <v>45919.48245370371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1321,7 +1331,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1358,14 +1368,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 57955-2024</t>
+          <t>A 1103-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45631.56939814815</v>
+        <v>45666</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1378,7 +1388,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1415,14 +1425,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 60718-2022</t>
+          <t>A 21141-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44912.89109953704</v>
+        <v>45062</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1435,7 +1445,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1472,14 +1482,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 31486-2021</t>
+          <t>A 34508-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44369.43783564815</v>
+        <v>45847.44315972222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1492,7 +1502,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1529,14 +1539,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 57410-2022</t>
+          <t>A 34394-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44896</v>
+        <v>45846.58854166666</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1549,7 +1559,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>7.5</v>
+        <v>3.9</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1586,14 +1596,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 42462-2025</t>
+          <t>A 32577-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45905.45730324074</v>
+        <v>45838</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1606,7 +1616,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.3</v>
+        <v>5.3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1643,14 +1653,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 21141-2023</t>
+          <t>A 34939-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45062</v>
+        <v>45849.58229166667</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1663,7 +1673,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.4</v>
+        <v>7.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1700,14 +1710,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 45167-2025</t>
+          <t>A 34963-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45919.49364583333</v>
+        <v>45849.63219907408</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1720,7 +1730,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1757,14 +1767,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 45158-2025</t>
+          <t>A 34591-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45919.48245370371</v>
+        <v>44795.3778587963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1777,7 +1787,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1814,14 +1824,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 45088-2025</t>
+          <t>A 60718-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45919.37598379629</v>
+        <v>44912.89109953704</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1834,7 +1844,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1871,14 +1881,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 1379-2024</t>
+          <t>A 21379-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45303.55193287037</v>
+        <v>45063.34819444444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1890,13 +1900,8 @@
           <t>TJÖRN</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>1.5</v>
+        <v>5.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1933,14 +1938,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 61627-2024</t>
+          <t>A 57000-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45646.66263888889</v>
+        <v>45977</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1952,13 +1957,8 @@
           <t>TJÖRN</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1995,14 +1995,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 60392-2022</t>
+          <t>A 57655-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44910</v>
+        <v>45981.40369212963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2052,14 +2052,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 59192-2022</t>
+          <t>A 2434-2026</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44896</v>
+        <v>46036.86722222222</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2109,14 +2109,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 60717-2022</t>
+          <t>A 2433-2026</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44912.89078703704</v>
+        <v>46036.86631944445</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2166,14 +2166,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 57000-2025</t>
+          <t>A 60392-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45977</v>
+        <v>44910</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2223,14 +2223,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 57655-2025</t>
+          <t>A 7787-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45981.40369212963</v>
+        <v>44973</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.4</v>
+        <v>5.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2280,14 +2280,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 2434-2026</t>
+          <t>A 60717-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>46036.86722222222</v>
+        <v>44912.89078703704</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2337,14 +2337,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 2433-2026</t>
+          <t>A 43229-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>46036.86631944445</v>
+        <v>45567.88697916667</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2394,14 +2394,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 23301-2025</t>
+          <t>A 59011-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45791.59498842592</v>
+        <v>45987</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2451,14 +2451,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 23294-2025</t>
+          <t>A 59192-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45791.58967592593</v>
+        <v>44896</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4.6</v>
+        <v>1.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2508,14 +2508,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 23295-2025</t>
+          <t>A 7791-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45791.59071759259</v>
+        <v>44973</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2565,14 +2565,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 59011-2025</t>
+          <t>A 769-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45987</v>
+        <v>44931</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2622,14 +2622,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 1103-2025</t>
+          <t>A 1486-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45666</v>
+        <v>44937</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.6</v>
+        <v>0.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2679,14 +2679,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 34394-2025</t>
+          <t>A 60793-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45846.58854166666</v>
+        <v>45260.6534375</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2736,14 +2736,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 10354-2026</t>
+          <t>A 10340-2026</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
         <v>46075</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2793,14 +2793,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 32577-2025</t>
+          <t>A 10354-2026</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45838</v>
+        <v>46075</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>5.3</v>
+        <v>0.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2850,14 +2850,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 34508-2025</t>
+          <t>A 57410-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45847.44315972222</v>
+        <v>44896</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2907,14 +2907,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 10340-2026</t>
+          <t>A 31486-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>46075</v>
+        <v>44369.43783564815</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>4.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2964,14 +2964,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 34939-2025</t>
+          <t>A 63664-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45849.58229166667</v>
+        <v>45275.62074074074</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>7.8</v>
+        <v>3.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3021,14 +3021,14 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 34963-2025</t>
+          <t>A 57955-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45849.63219907408</v>
+        <v>45631.56939814815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>

--- a/Översikt TJÖRN.xlsx
+++ b/Översikt TJÖRN.xlsx
@@ -575,7 +575,7 @@
         <v>45789.38215277778</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45974.59738425926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>46029</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,14 +845,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 1379-2024</t>
+          <t>A 769-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45303.55193287037</v>
+        <v>44931</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -864,13 +864,8 @@
           <t>TJÖRN</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G5" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -907,14 +902,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 61627-2024</t>
+          <t>A 21379-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45646.66263888889</v>
+        <v>45063.34819444444</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -926,13 +921,8 @@
           <t>TJÖRN</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G6" t="n">
-        <v>2.1</v>
+        <v>5.8</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -969,14 +959,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 23295-2025</t>
+          <t>A 1486-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45791.59071759259</v>
+        <v>44937</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -989,7 +979,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>0.2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1026,14 +1016,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 23294-2025</t>
+          <t>A 60392-2022</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45791.58967592593</v>
+        <v>44910</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1046,7 +1036,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1083,14 +1073,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 23301-2025</t>
+          <t>A 59192-2022</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45791.59498842592</v>
+        <v>44896</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1103,7 +1093,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1140,14 +1130,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 42462-2025</t>
+          <t>A 7787-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45905.45730324074</v>
+        <v>44973</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1160,7 +1150,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>5.7</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1197,14 +1187,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 45167-2025</t>
+          <t>A 60717-2022</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45919.49364583333</v>
+        <v>44912.89078703704</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1217,7 +1207,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1254,14 +1244,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 45088-2025</t>
+          <t>A 60718-2022</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45919.37598379629</v>
+        <v>44912.89109953704</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1274,7 +1264,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1311,14 +1301,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 45158-2025</t>
+          <t>A 31486-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45919.48245370371</v>
+        <v>44369.43783564815</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1331,7 +1321,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.7</v>
+        <v>4.8</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1368,14 +1358,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 1103-2025</t>
+          <t>A 57410-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45666</v>
+        <v>44896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1388,7 +1378,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.6</v>
+        <v>7.5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1425,14 +1415,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 21141-2023</t>
+          <t>A 43229-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45062</v>
+        <v>45567.88697916667</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1445,7 +1435,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1482,14 +1472,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 34508-2025</t>
+          <t>A 34591-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45847.44315972222</v>
+        <v>44795.3778587963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1502,7 +1492,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1539,14 +1529,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 34394-2025</t>
+          <t>A 23301-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45846.58854166666</v>
+        <v>45791.59498842592</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1559,7 +1549,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1596,14 +1586,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 32577-2025</t>
+          <t>A 7791-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45838</v>
+        <v>44973</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1616,7 +1606,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5.3</v>
+        <v>3.1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1653,14 +1643,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 34939-2025</t>
+          <t>A 23294-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45849.58229166667</v>
+        <v>45791.58967592593</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1673,7 +1663,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>7.8</v>
+        <v>4.6</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1710,14 +1700,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 34963-2025</t>
+          <t>A 23295-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45849.63219907408</v>
+        <v>45791.59071759259</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1730,7 +1720,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1767,14 +1757,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 34591-2022</t>
+          <t>A 42462-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44795.3778587963</v>
+        <v>45905.45730324074</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1787,7 +1777,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1824,14 +1814,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 60718-2022</t>
+          <t>A 45167-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44912.89109953704</v>
+        <v>45919.49364583333</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1844,7 +1834,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1881,14 +1871,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 21379-2023</t>
+          <t>A 45158-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45063.34819444444</v>
+        <v>45919.48245370371</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1901,7 +1891,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5.8</v>
+        <v>2.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1938,14 +1928,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 57000-2025</t>
+          <t>A 45088-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45977</v>
+        <v>45919.37598379629</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1958,7 +1948,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1995,14 +1985,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 57655-2025</t>
+          <t>A 1379-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45981.40369212963</v>
+        <v>45303.55193287037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2014,8 +2004,13 @@
           <t>TJÖRN</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2052,14 +2047,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 2434-2026</t>
+          <t>A 61627-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>46036.86722222222</v>
+        <v>45646.66263888889</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2071,8 +2066,13 @@
           <t>TJÖRN</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2109,14 +2109,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 2433-2026</t>
+          <t>A 1103-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>46036.86631944445</v>
+        <v>45666</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2166,14 +2166,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 60392-2022</t>
+          <t>A 63664-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44910</v>
+        <v>45275.62074074074</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2223,14 +2223,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 7787-2023</t>
+          <t>A 60793-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44973</v>
+        <v>45260.6534375</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5.7</v>
+        <v>0.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2280,14 +2280,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 60717-2022</t>
+          <t>A 34394-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44912.89078703704</v>
+        <v>45846.58854166666</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2337,14 +2337,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 43229-2024</t>
+          <t>A 32577-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45567.88697916667</v>
+        <v>45838</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>9.699999999999999</v>
+        <v>5.3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2394,14 +2394,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 59011-2025</t>
+          <t>A 34508-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45987</v>
+        <v>45847.44315972222</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2451,14 +2451,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 59192-2022</t>
+          <t>A 57955-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44896</v>
+        <v>45631.56939814815</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2508,14 +2508,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 7791-2023</t>
+          <t>A 57000-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44973</v>
+        <v>45977</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2565,14 +2565,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 769-2023</t>
+          <t>A 57655-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44931</v>
+        <v>45981.40369212963</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2622,14 +2622,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 1486-2023</t>
+          <t>A 34939-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44937</v>
+        <v>45849.58229166667</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.2</v>
+        <v>7.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2679,14 +2679,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 60793-2023</t>
+          <t>A 34963-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45260.6534375</v>
+        <v>45849.63219907408</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2736,14 +2736,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 10340-2026</t>
+          <t>A 2434-2026</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>46075</v>
+        <v>46036.86722222222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2793,14 +2793,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 10354-2026</t>
+          <t>A 2433-2026</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>46075</v>
+        <v>46036.86631944445</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2850,14 +2850,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 57410-2022</t>
+          <t>A 21141-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44896</v>
+        <v>45062</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2907,14 +2907,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 31486-2021</t>
+          <t>A 59011-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44369.43783564815</v>
+        <v>45987</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.8</v>
+        <v>2.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2964,14 +2964,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 63664-2023</t>
+          <t>A 10354-2026</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45275.62074074074</v>
+        <v>46075</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3021,14 +3021,14 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 57955-2024</t>
+          <t>A 10340-2026</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45631.56939814815</v>
+        <v>46075</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>

--- a/Översikt TJÖRN.xlsx
+++ b/Översikt TJÖRN.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:Z47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45789.38215277778</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45974.59738425926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>46029</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,14 +845,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 769-2023</t>
+          <t>A 11240-2026</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44931</v>
+        <v>46080.51972222222</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -865,13 +865,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>3.9</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -895,21 +895,49 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Strutbräken</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1419/artfynd/A 11240-2026 artfynd.xlsx", "A 11240-2026")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1419/kartor/A 11240-2026 karta.png", "A 11240-2026")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1419/klagomål/A 11240-2026 FSC-klagomål.docx", "A 11240-2026")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1419/klagomålsmail/A 11240-2026 FSC-klagomål mail.docx", "A 11240-2026")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1419/tillsyn/A 11240-2026 tillsynsbegäran.docx", "A 11240-2026")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1419/tillsynsmail/A 11240-2026 tillsynsbegäran mail.docx", "A 11240-2026")</f>
+        <v/>
+      </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 21379-2023</t>
+          <t>A 11250-2026</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45063.34819444444</v>
+        <v>46080.54224537037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -922,10 +950,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.8</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -952,9 +980,37 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1419/artfynd/A 11250-2026 artfynd.xlsx", "A 11250-2026")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1419/kartor/A 11250-2026 karta.png", "A 11250-2026")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1419/klagomål/A 11250-2026 FSC-klagomål.docx", "A 11250-2026")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1419/klagomålsmail/A 11250-2026 FSC-klagomål mail.docx", "A 11250-2026")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1419/tillsyn/A 11250-2026 tillsynsbegäran.docx", "A 11250-2026")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1419/tillsynsmail/A 11250-2026 tillsynsbegäran mail.docx", "A 11250-2026")</f>
+        <v/>
+      </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
@@ -966,7 +1022,7 @@
         <v>44937</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1016,14 +1072,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 60392-2022</t>
+          <t>A 60718-2022</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44910</v>
+        <v>44912.89109953704</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1036,7 +1092,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.1</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1073,14 +1129,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 59192-2022</t>
+          <t>A 31486-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44896</v>
+        <v>44369.43783564815</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1093,7 +1149,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.5</v>
+        <v>4.8</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1130,14 +1186,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 7787-2023</t>
+          <t>A 57410-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44973</v>
+        <v>44896</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1150,7 +1206,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5.7</v>
+        <v>7.5</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1187,14 +1243,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 60717-2022</t>
+          <t>A 43229-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44912.89078703704</v>
+        <v>45567.88697916667</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1207,7 +1263,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1244,14 +1300,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 60718-2022</t>
+          <t>A 769-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44912.89109953704</v>
+        <v>44931</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1264,7 +1320,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1301,14 +1357,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 31486-2021</t>
+          <t>A 1103-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44369.43783564815</v>
+        <v>45666</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1321,7 +1377,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.8</v>
+        <v>1.6</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1358,14 +1414,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 57410-2022</t>
+          <t>A 21379-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44896</v>
+        <v>45063.34819444444</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1378,7 +1434,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>7.5</v>
+        <v>5.8</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1415,14 +1471,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 43229-2024</t>
+          <t>A 42462-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45567.88697916667</v>
+        <v>45905.45730324074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1435,7 +1491,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>9.699999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1472,14 +1528,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 34591-2022</t>
+          <t>A 34394-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44795.3778587963</v>
+        <v>45846.58854166666</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1492,7 +1548,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1529,14 +1585,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 23301-2025</t>
+          <t>A 7787-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45791.59498842592</v>
+        <v>44973</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1549,7 +1605,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.9</v>
+        <v>5.7</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1586,14 +1642,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 7791-2023</t>
+          <t>A 32577-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44973</v>
+        <v>45838</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1606,7 +1662,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.1</v>
+        <v>5.3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1643,14 +1699,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 23294-2025</t>
+          <t>A 34508-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45791.58967592593</v>
+        <v>45847.44315972222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1663,7 +1719,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.6</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1700,14 +1756,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 23295-2025</t>
+          <t>A 45167-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45791.59071759259</v>
+        <v>45919.49364583333</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1720,7 +1776,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1757,14 +1813,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 42462-2025</t>
+          <t>A 45158-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45905.45730324074</v>
+        <v>45919.48245370371</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1777,7 +1833,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1814,14 +1870,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 45167-2025</t>
+          <t>A 45088-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45919.49364583333</v>
+        <v>45919.37598379629</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1834,7 +1890,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1871,14 +1927,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 45158-2025</t>
+          <t>A 34939-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45919.48245370371</v>
+        <v>45849.58229166667</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1891,7 +1947,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.7</v>
+        <v>7.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1928,14 +1984,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 45088-2025</t>
+          <t>A 34963-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45919.37598379629</v>
+        <v>45849.63219907408</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +2004,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1992,7 +2048,7 @@
         <v>45303.55193287037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2054,7 +2110,7 @@
         <v>45646.66263888889</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2109,14 +2165,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 1103-2025</t>
+          <t>A 7791-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45666</v>
+        <v>44973</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2129,7 +2185,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2166,14 +2222,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 63664-2023</t>
+          <t>A 57000-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45275.62074074074</v>
+        <v>45977</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2186,7 +2242,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2223,14 +2279,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 60793-2023</t>
+          <t>A 57655-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45260.6534375</v>
+        <v>45981.40369212963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2243,7 +2299,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2280,14 +2336,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 34394-2025</t>
+          <t>A 34591-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45846.58854166666</v>
+        <v>44795.3778587963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2300,7 +2356,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2337,14 +2393,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 32577-2025</t>
+          <t>A 63664-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45838</v>
+        <v>45275.62074074074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2357,7 +2413,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>5.3</v>
+        <v>3.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2394,14 +2450,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 34508-2025</t>
+          <t>A 59011-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45847.44315972222</v>
+        <v>45987</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2414,7 +2470,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2451,14 +2507,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 57955-2024</t>
+          <t>A 60793-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45631.56939814815</v>
+        <v>45260.6534375</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2471,7 +2527,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2508,14 +2564,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 57000-2025</t>
+          <t>A 57955-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45977</v>
+        <v>45631.56939814815</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2528,7 +2584,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2565,14 +2621,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 57655-2025</t>
+          <t>A 10354-2026</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45981.40369212963</v>
+        <v>46075</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2585,7 +2641,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2622,14 +2678,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 34939-2025</t>
+          <t>A 10340-2026</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45849.58229166667</v>
+        <v>46075</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2642,7 +2698,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>7.8</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2679,14 +2735,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 34963-2025</t>
+          <t>A 11042-2026</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45849.63219907408</v>
+        <v>46079.58265046297</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2699,7 +2755,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2736,14 +2792,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 2434-2026</t>
+          <t>A 11000-2026</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>46036.86722222222</v>
+        <v>46079.50145833333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2756,7 +2812,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2800,7 +2856,7 @@
         <v>46036.86631944445</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2850,14 +2906,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 21141-2023</t>
+          <t>A 2434-2026</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45062</v>
+        <v>46036.86722222222</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2870,7 +2926,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2907,14 +2963,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 59011-2025</t>
+          <t>A 21141-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45987</v>
+        <v>45062</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2927,7 +2983,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2964,14 +3020,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 10354-2026</t>
+          <t>A 60392-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>46075</v>
+        <v>44910</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2984,96 +3040,324 @@
         </is>
       </c>
       <c r="G42" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" s="2" t="inlineStr"/>
+    </row>
+    <row r="43" ht="15" customHeight="1">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>A 59192-2022</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>44896</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>TJÖRN</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" s="2" t="inlineStr"/>
+    </row>
+    <row r="44" ht="15" customHeight="1">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>A 60717-2022</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>44912.89078703704</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>TJÖRN</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
         <v>0.7</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" s="2" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>A 10340-2026</t>
-        </is>
-      </c>
-      <c r="B43" s="1" t="n">
-        <v>46075</v>
-      </c>
-      <c r="C43" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>TJÖRN</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>1</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" s="2" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" s="2" t="inlineStr"/>
+    </row>
+    <row r="45" ht="15" customHeight="1">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>A 23301-2025</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>45791.59498842592</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>TJÖRN</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" s="2" t="inlineStr"/>
+    </row>
+    <row r="46" ht="15" customHeight="1">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>A 23294-2025</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>45791.58967592593</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>TJÖRN</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" s="2" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>A 23295-2025</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>45791.59071759259</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>TJÖRN</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt TJÖRN.xlsx
+++ b/Översikt TJÖRN.xlsx
@@ -575,7 +575,7 @@
         <v>45789.38215277778</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45974.59738425926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>46029</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>46080.51972222222</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>46080.54224537037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>44937</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1079,7 +1079,7 @@
         <v>44912.89109953704</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         <v>44369.43783564815</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
         <v>44896</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>45567.88697916667</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         <v>44931</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>45666</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
         <v>45063.34819444444</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>45905.45730324074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>45846.58854166666</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>44973</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>45838</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>45847.44315972222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>45919.49364583333</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45919.48245370371</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>45919.37598379629</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>45849.58229166667</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>45849.63219907408</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>45303.55193287037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>45646.66263888889</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>44973</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         <v>45977</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>45981.40369212963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>44795.3778587963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>45275.62074074074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         <v>45987</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>45260.6534375</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>45631.56939814815</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>46075</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>46075</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>46079.58265046297</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>46079.50145833333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         <v>46036.86631944445</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>46036.86722222222</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>45062</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>44910</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>44896</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>44912.89078703704</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>45791.59498842592</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>45791.58967592593</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>45791.59071759259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
